--- a/Tranzicija stanja.xlsx
+++ b/Tranzicija stanja.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kenoa\Desktop\Github\Formalne-Metode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\FM vjezbe\Formalne-Metode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C967994-C04B-4D50-A26B-98119DD62390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6BF9883-1EE7-4F4A-A3BC-8BF5666416C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,10 +48,10 @@
     <t>Unos ključne riječi, akademske godine,vrste materijala i pritisak gumba "Traži"</t>
   </si>
   <si>
-    <t>Vracanje rezultata[rezultati!=null]</t>
-  </si>
-  <si>
-    <t>Vracanje rezultata[rezultati==null]</t>
+    <t>Vraćanje rezultata[rezultati!=null]</t>
+  </si>
+  <si>
+    <t>Vraćanje rezultata[rezultati==null]</t>
   </si>
 </sst>
 </file>
@@ -126,7 +126,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalno" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -283,7 +283,15 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US"/>
-            <a:t> izvođenja određenih operacija.Stanje </a:t>
+            <a:t> izvođenja određenih operacija.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="hr-HR"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Stanje </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="bs-Latn-BA"/>
@@ -575,22 +583,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="P4:T12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="14" max="14" width="9" customWidth="1"/>
-    <col min="15" max="15" width="4.42578125" customWidth="1"/>
-    <col min="16" max="16" width="74.85546875" customWidth="1"/>
-    <col min="17" max="17" width="19.42578125" customWidth="1"/>
-    <col min="18" max="18" width="40.85546875" customWidth="1"/>
-    <col min="19" max="19" width="19.7109375" customWidth="1"/>
-    <col min="20" max="20" width="41.28515625" customWidth="1"/>
+    <col min="15" max="15" width="4.453125" customWidth="1"/>
+    <col min="16" max="16" width="74.81640625" customWidth="1"/>
+    <col min="17" max="17" width="19.453125" customWidth="1"/>
+    <col min="18" max="18" width="40.81640625" customWidth="1"/>
+    <col min="19" max="19" width="19.7265625" customWidth="1"/>
+    <col min="20" max="20" width="41.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="16:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="16:20" x14ac:dyDescent="0.35">
       <c r="Q4" s="1" t="s">
         <v>0</v>
       </c>
@@ -604,7 +612,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="16:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="16:20" x14ac:dyDescent="0.35">
       <c r="P5" s="1" t="s">
         <v>4</v>
       </c>
@@ -621,7 +629,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="16:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="16:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="P6" s="4" t="s">
         <v>6</v>
       </c>
@@ -638,7 +646,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="16:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="16:20" x14ac:dyDescent="0.35">
       <c r="P7" s="1" t="s">
         <v>7</v>
       </c>
@@ -655,7 +663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="16:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="16:20" x14ac:dyDescent="0.35">
       <c r="P8" s="1" t="s">
         <v>4</v>
       </c>
@@ -672,7 +680,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="16:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="16:20" x14ac:dyDescent="0.35">
       <c r="P9" s="4" t="s">
         <v>6</v>
       </c>
@@ -689,7 +697,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="16:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="16:20" x14ac:dyDescent="0.35">
       <c r="P10" s="1" t="s">
         <v>8</v>
       </c>
@@ -706,7 +714,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="16:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="16:20" x14ac:dyDescent="0.35">
       <c r="P11" s="1" t="s">
         <v>4</v>
       </c>
@@ -723,7 +731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="16:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="16:20" x14ac:dyDescent="0.35">
       <c r="P12" s="4" t="s">
         <v>6</v>
       </c>
